--- a/Exporter/配置表1.xlsx
+++ b/Exporter/配置表1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试全局表|TestGlobal" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -368,6 +368,52 @@
   </si>
   <si>
     <t>1:2:3;2:2:10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCustomObjArray</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试全局配置数组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositionArray3d</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:3</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -778,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1008,6 +1054,20 @@
         <v>57</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1017,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1051,6 +1111,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/Exporter/配置表1.xlsx
+++ b/Exporter/配置表1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="测试全局表|TestGlobal" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -160,60 +160,6 @@
   </si>
   <si>
     <t>测试普通自定义对象</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1:2.02:0</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{int a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>float</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> b:bool v}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TestObj</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Array</t>
-    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -256,10 +202,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>TestObj1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>{int a:float[]</t>
     </r>
@@ -272,14 +214,6 @@
       </rPr>
       <t xml:space="preserve"> b:bool v}</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:2,2,3,4:0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestObjArray1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -339,26 +273,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Test</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DefineFromGlobal</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestDefineFromGlobal2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Position3d[]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -368,14 +282,6 @@
   </si>
   <si>
     <t>1:2:3;2:2:10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestCustomObjArray</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试全局配置数组</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -414,6 +320,92 @@
       </rPr>
       <t>:3</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:2.02:1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{int a:float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> b:bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:2,2,3,4:1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestObj1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestObjArray</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestObjArray1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDefineFromGlobal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDefineFromGlobal2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCustomObj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCustomObjArray</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2:2,6:3;2:5:10,12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositionArray3d[]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试全局配置含有数组字段的数组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试全局配置数组字段</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -824,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -873,7 +865,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5">
@@ -887,7 +879,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
@@ -901,7 +893,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="5">
@@ -915,7 +907,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -929,7 +921,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -943,7 +935,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -957,7 +949,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -975,10 +967,10 @@
         <v>35</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>36</v>
@@ -986,86 +978,100 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>60</v>
+      <c r="B17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1079,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Exporter/配置表1.xlsx
+++ b/Exporter/配置表1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -406,6 +406,14 @@
   </si>
   <si>
     <t>测试全局配置数组字段</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Test</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试注释行 前面加#为注释</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -816,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1072,6 +1080,20 @@
       </c>
       <c r="E17" s="5" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Exporter/配置表1.xlsx
+++ b/Exporter/配置表1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>TestIntArray</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -826,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -918,182 +914,179 @@
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="E17" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Exporter/配置表1.xlsx
+++ b/Exporter/配置表1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -410,6 +410,104 @@
   </si>
   <si>
     <t>测试注释行 前面加#为注释</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestString</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈哈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TestString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Array</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈,哈哈,哈哈1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -539,6 +637,9 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -820,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -868,224 +969,254 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5">
-        <v>7.8520000000000003</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7.8520000000000003</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Exporter/配置表1.xlsx
+++ b/Exporter/配置表1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -508,6 +508,18 @@
   </si>
   <si>
     <t>哈,哈哈,哈哈1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestString1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试string数字类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -921,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -984,231 +996,232 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="9" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>7.8520000000000003</v>
+        <v>6.5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>7.8520000000000003</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>62</v>
@@ -1217,6 +1230,20 @@
         <v>63</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Exporter/配置表1.xlsx
+++ b/Exporter/配置表1.xlsx
@@ -159,28 +159,291 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{int a:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int b:int c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
+    <t>测试普通自定义对象数组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试普通自定义内部含有数组对象,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试普通自定义内部含有数组对象数组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position3d</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试全局对象声明</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position3d[]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试全局对象声明数组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositionArray3d</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestObj1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestObjArray</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestObjArray1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDefineFromGlobal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDefineFromGlobal2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCustomObj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCustomObjArray</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositionArray3d[]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试全局配置含有数组字段的数组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试全局配置数组字段</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Test</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试注释行 前面加#为注释</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestString</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈哈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TestString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Array</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈,哈哈,哈哈1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestString1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试string数字类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{int a;float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> b;bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2.02;1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{int a;float[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bool v}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2,2,3,4;1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{int a;int b;int c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -194,162 +457,109 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>测试普通自定义对象数组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{int a:float[]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> b:bool v}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:2:0;1:10:1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{int a:float[] b}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:2,2,3,4;-1:2,2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试普通自定义内部含有数组对象,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试普通自定义内部含有数组对象数组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position3d</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:2:3</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试全局对象声明</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position3d[]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试全局对象声明数组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:2:3;2:2:10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PositionArray3d</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1,2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:3</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:2.02:1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{int a:float</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> b:bool </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
+    <t>{int a;float[] b}[]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1,2;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,6;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{1,2;2,6;3}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10,12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -357,169 +567,97 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1:2,2,3,4:1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestObj1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestObjArray</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestObjArray1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestDefineFromGlobal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestDefineFromGlobal2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestCustomObj</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestCustomObjArray</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2:2,6:3;2:5:10,12</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PositionArray3d[]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试全局配置含有数组字段的数组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试全局配置数组字段</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Test</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试注释行 前面加#为注释</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestString</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈哈哈</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>测试s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tring</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>测试string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TestString</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Array</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈,哈哈,哈哈1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestString1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试string数字类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+    <t>{1;2;0}{1;10;1}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1;2,2,3,4}{-1;2,2}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3}{2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10}</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -539,6 +677,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -546,6 +685,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -553,6 +693,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -561,12 +702,14 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -936,7 +1079,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -983,47 +1126,47 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="9" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="9" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="9" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1126,10 +1269,10 @@
         <v>34</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>35</v>
@@ -1137,114 +1280,114 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1259,7 +1402,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Exporter/配置表1.xlsx
+++ b/Exporter/配置表1.xlsx
@@ -243,10 +243,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>哈哈哈</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -658,6 +654,10 @@
       </rPr>
       <t>10}</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈\哈\n哈</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1126,47 +1126,47 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1269,10 +1269,10 @@
         <v>34</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>35</v>
@@ -1283,10 +1283,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>37</v>
@@ -1297,10 +1297,10 @@
         <v>45</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>36</v>
@@ -1311,10 +1311,10 @@
         <v>46</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>38</v>
@@ -1325,7 +1325,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>39</v>
@@ -1339,7 +1339,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>41</v>
@@ -1353,7 +1353,7 @@
         <v>49</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>43</v>
@@ -1367,7 +1367,7 @@
         <v>50</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>51</v>
@@ -1381,7 +1381,7 @@
         <v>54</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>51</v>

--- a/Exporter/配置表1.xlsx
+++ b/Exporter/配置表1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -563,14 +563,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>{1;2;0}{1;10;1}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1;2,2,3,4}{-1;2,2}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>{1</t>
     </r>
@@ -658,6 +650,39 @@
   </si>
   <si>
     <t>哈\哈\n哈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1;2;0}
+{1;10;1}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1;2,2,3,4}
+{-1;2,2}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Test_Int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试int类型 错误字段命名规则</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test1Int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试int类型 可以 但不建议字段命名含有数字</t>
+  </si>
+  <si>
+    <t>测试int类型 可以 但不建议字段命名含有数字</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestInt1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +690,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,8 +752,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,6 +770,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -796,6 +834,15 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -816,6 +863,382 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2266950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3752850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="3390900"/>
+          <a:ext cx="1485900" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>这里建议</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>alt+enter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>回车换行，相对直观一些</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3914775" y="3990975"/>
+          <a:ext cx="1190625" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562475" y="542924"/>
+          <a:ext cx="3057526" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>所有的数组都是用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>分隔符，当</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>string</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>内含有，时会有问题，这里没有用其它符号标识，配置时需注意，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>另外也不建议或尽量避免文本用数组形式，可新建一张文本表，这里配置文本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>的索引，这样方便后期翻译，以及复用性。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1143003</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>509587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3962403" y="685801"/>
+          <a:ext cx="600072" cy="623886"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4343400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="5438776"/>
+          <a:ext cx="3009900" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>所有的字段命名不允许出现符号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>，中文，或者数组开头，比如</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>1Test</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Test_Filed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>啊</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Filed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Filed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>啊</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1076,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1551,7 @@
       <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1159,7 +1582,7 @@
         <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>57</v>
@@ -1292,12 +1715,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>75</v>
+      <c r="B15" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>70</v>
@@ -1306,12 +1729,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>76</v>
+      <c r="B16" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>71</v>
@@ -1339,7 +1762,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>41</v>
@@ -1388,12 +1811,55 @@
       </c>
       <c r="E21" s="5" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1401,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Exporter/配置表1.xlsx
+++ b/Exporter/配置表1.xlsx
@@ -43,10 +43,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>sign（后续支持）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>TestInt</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -683,6 +679,10 @@
   </si>
   <si>
     <t>TestInt1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1515,7 +1515,7 @@
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -1544,278 +1544,278 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5">
         <v>6.5</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5">
         <v>7.8520000000000003</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>5</v>
@@ -1824,12 +1824,12 @@
         <v>6</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>5</v>
@@ -1838,12 +1838,12 @@
         <v>6</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>5</v>
@@ -1852,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1901,17 +1901,17 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5">
         <v>6.5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Exporter/配置表1.xlsx
+++ b/Exporter/配置表1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -683,6 +683,10 @@
   </si>
   <si>
     <t>sign</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -690,6 +694,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -805,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -842,6 +849,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1502,7 +1512,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1536,8 +1546,8 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+      <c r="B2" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -1859,6 +1869,9 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/Exporter/配置表1.xlsx
+++ b/Exporter/配置表1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -687,6 +687,10 @@
   </si>
   <si>
     <t>7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:client,server,c#,lua}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1512,7 +1516,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1520,7 +1524,7 @@
     <col min="1" max="1" width="37" style="5" customWidth="1"/>
     <col min="2" max="2" width="62.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="37.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="101.5" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
@@ -1567,7 +1571,9 @@
       <c r="C3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="E3" s="9" t="s">
         <v>59</v>
       </c>
@@ -1880,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Exporter/配置表1.xlsx
+++ b/Exporter/配置表1.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试全局表|TestGlobal" sheetId="1" r:id="rId1"/>
     <sheet name="测试全局表2|TestGlobal2" sheetId="2" r:id="rId2"/>
+    <sheet name="测试列表3|TestListTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -692,6 +693,18 @@
   <si>
     <t>{1:client,server,c#,lua}</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -701,7 +714,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,6 +782,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1515,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1938,4 +1957,35 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>